--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aws/Documents/jaza-eclips/opencart/testData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aws/projects/jaza-eclips/opencart/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC0236C-0A2F-EC4D-84EF-919FEED2D3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6349B93D-0243-EC44-BC64-42C8F2C0FE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33120" windowHeight="17580" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
+    <workbookView xWindow="5280" yWindow="4020" windowWidth="33120" windowHeight="17580" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>username</t>
   </si>
@@ -45,44 +45,41 @@
     <t>res</t>
   </si>
   <si>
-    <t>lakshmi@yahoo.com</t>
-  </si>
-  <si>
-    <t>Lakshmi</t>
-  </si>
-  <si>
     <t>Valid</t>
   </si>
   <si>
-    <t>laksh@yahoo.com</t>
-  </si>
-  <si>
-    <t>Laxmi</t>
-  </si>
-  <si>
     <t>Invalid</t>
   </si>
   <si>
-    <t>laks@yahoo.com</t>
-  </si>
-  <si>
     <t>xyz</t>
   </si>
   <si>
-    <t>pavanoltraining@gmail.com</t>
-  </si>
-  <si>
-    <t>test@123</t>
-  </si>
-  <si>
-    <t>abc123@gmail.com</t>
+    <t>huluhuqqdemo@gmail.com</t>
+  </si>
+  <si>
+    <t>1Blackday121@</t>
+  </si>
+  <si>
+    <t>example231@gmai.com</t>
+  </si>
+  <si>
+    <t>Pikosa</t>
+  </si>
+  <si>
+    <t>kikugaml@yahoo.com</t>
+  </si>
+  <si>
+    <t>popolkis</t>
+  </si>
+  <si>
+    <t>niksdemo@yahoo.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,14 +98,6 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="16"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -156,21 +145,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -513,69 +496,69 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>5</v>
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{D3BE7519-95C3-4ACD-9AB4-5385C9508082}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{8456409A-CACC-4B7E-B78E-75E713148E0E}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{5E52A498-5B14-4BDC-BBF1-05425B8AC197}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{94E9D5A6-98A1-4A25-BDDE-C5B20EDA887E}"/>
-    <hyperlink ref="B2" r:id="rId5" xr:uid="{968262D0-AE14-41EF-AB8A-08B3F886E797}"/>
-    <hyperlink ref="A6" r:id="rId6" xr:uid="{75A4F8D6-7BF1-446B-9367-475FA4FB44C7}"/>
-    <hyperlink ref="B6" r:id="rId7" xr:uid="{01D5649A-5E55-45E1-9B81-1CE430C208A1}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{3D3F0EC9-5857-264F-82A8-A7209514526E}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{AEA01A95-A286-314F-9466-FF5F99EA9CC6}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{81820A50-8429-D346-80F8-3C07B94EC9F0}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{C1210026-A75F-AE47-A428-A366BE47FE36}"/>
+    <hyperlink ref="A5" r:id="rId5" xr:uid="{EF3BFE1D-954D-2648-987D-6C352FD3E3A8}"/>
+    <hyperlink ref="A6" r:id="rId6" xr:uid="{9FDA98AC-6CF4-F64D-90A8-97C13D347D75}"/>
+    <hyperlink ref="B6" r:id="rId7" xr:uid="{14195C69-795D-074E-A745-21CF9D13B2A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
